--- a/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>Same as repayment period</t>
   </si>
   <si>
-    <t>1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
-  </si>
-  <si>
     <t>verifyloanproduct</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment</t>
   </si>
 </sst>
 </file>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -607,8 +607,8 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5">
         <v>10000</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -953,10 +953,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductLoan_Input" sheetId="6" r:id="rId1"/>
-    <sheet name="ProductLoan_Output" sheetId="7" r:id="rId2"/>
+    <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
+    <sheet name="ProductLoanOutput" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <t>productname</t>
   </si>
@@ -98,18 +98,12 @@
     <t>maximumtranchecount</t>
   </si>
   <si>
-    <t>nominalinterestrateminimum</t>
-  </si>
-  <si>
     <t>numberofrepaymentsdefault</t>
   </si>
   <si>
     <t>nominalinterestratedefault</t>
   </si>
   <si>
-    <t>termsvarybasedonloancycle</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>maximumallowedaoutstandingbalance</t>
-  </si>
-  <si>
     <t>fundsource</t>
   </si>
   <si>
@@ -219,6 +210,15 @@
   </si>
   <si>
     <t>1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-Late Repayment</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
   </si>
 </sst>
 </file>
@@ -592,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -661,20 +661,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10000</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,261 +685,253 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>10000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1</v>
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +945,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -964,10 +956,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -276,14 +276,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -592,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -604,7 +603,7 @@
     <col min="2" max="2" width="61.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -612,7 +611,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -620,7 +619,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -628,32 +627,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -661,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -669,7 +667,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -677,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -685,16 +683,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -702,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -710,7 +707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -718,7 +715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -726,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -775,7 +772,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -783,7 +780,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -791,7 +788,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -799,7 +796,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -807,7 +804,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -815,7 +812,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B27" s="5">
@@ -823,7 +820,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5">
@@ -831,10 +828,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>Overpayment Liability</t>
   </si>
   <si>
-    <t>Mifos style</t>
-  </si>
-  <si>
     <t>Daily</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>1063-MS-EPP-DB-DL-REC-NON-RNI-CTRFD-SAR-MD-TR-1-LateRepayment</t>
+  </si>
+  <si>
+    <t>Penalties, Fees, Interest, Principal order</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -289,6 +289,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -712,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,8 +730,8 @@
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
+      <c r="B16" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -736,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -784,7 +787,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -800,7 +803,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -813,7 +816,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="5">
         <v>10000</v>
@@ -829,7 +832,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>8</v>
@@ -941,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -953,10 +956,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
